--- a/DOM_Banner/output/dept_banner/Sebastian Silva_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sebastian Silva_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>INESC TEC, Porto, Portugal; INESC TEC, Porto, Portugal; Department of Diagnostic, Interventional and Pediatric Radiology, Inselspital, Bern University Hospital, University of Bern, Bern, Switzerland; Department of Diagnostic, Interventional and Pediatric Radiology, Inselspital, Bern University Hospital, University of Bern, Bern, Switzerland; Department of Diagnostic, Interventional and Pediatric Radiology, Inselspital, Bern University Hospital, University of Bern, Bern, Switzerland; Department of Diagnostic, Interventional and Pediatric Radiology, Inselspital, Bern University Hospital, University of Bern, Bern, Switzerland; Department of Diagnostic, Interventional and Pediatric Radiology, Inselspital, Bern University Hospital, University of Bern, Bern, Switzerland; ARTORG Center for Biomedical Engineering Research, University of Bern, Bern, Switzerland; Faculty of Engineering, University of Porto, Porto, Portugal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318069718</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Author Correction: Computer-aided diagnosis through medical image retrieval in radiology</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-023-28523-1</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36702842</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-023-28523-1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Linguistics Program, Brown University, Providence, RI 02912, USA; Faculty of Linguistics, Philology, and Phonetics, University of Oxford, Oxford OX1 3DW, UK; Department of Linguistics, University of Arizona, Tucson, AZ 85721, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378528070</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>The Forms and Functions of Switch Reference in A’ingae</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Languages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/languages8020137</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/languages8020137</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Faculty of Engineering, University of Porto, Porto, Portugal; INESC TEC, Porto, Portugal; Faculty of Engineering, University of Porto, Porto, Portugal; INESC TEC, Porto, Portugal; Faculty of Engineering, University of Porto, Porto, Portugal; INESC TEC, Porto, Portugal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319865628</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Disentangled Representation Learning for Privacy-Preserving Case-Based Explanations</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Lecture Notes in Computer Science</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/978-3-031-25046-0_4</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-25046-0_4</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -693,24 +713,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361187321</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>COMPENDIO SOBRE SINDROME CORONARIO AGUDO</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,50 +738,55 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.58927/vitalfam.1301</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>es</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.58927/vitalfam.1301</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>book</t>
         </is>
@@ -770,42 +795,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gonçalo Ferreira, Marco Antônio Pereira Teixeira, Raquel Belo, Wilson Silva, Jaime S. Cardoso</t>
+          <t>Valentina Corbetta, Regina Beets-Tan, Wilson Silva</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385488890</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Deep Learning Strategies For Rare Drug Mechanism of Action Prediction</t>
+          <t>https://openalex.org/W4386351398</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>Interpretability-guided Data Augmentation for Robust Segmentation in
+  Multi-centre Colonoscopy Data</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ijcnn54540.2023.10191437</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://arxiv.org/abs/2308.15881</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -815,35 +841,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ijcnn54540.2023.10191437</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2308.15881</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,81 +883,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Valentina Corbetta, Regina Beets-Tan, Wilson Silva</t>
+          <t>Gonçalo Ferreira, Marco Antônio Pereira Teixeira, Raquel Belo, Wilson Silva, Jaime S. Cardoso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386351398</t>
+          <t>FEUP - Faculty of Engineering, University of Porto, Porto, Portugal; FEUP - Faculty of Engineering, University of Porto, Porto, Portugal; INESC TEC - Institute for Systems and Computer Engineering, Technology and Science, Porto, Portugal; FEUP - Faculty of Engineering, University of Porto, Porto, Portugal; INESC TEC - Institute for Systems and Computer Engineering, Technology and Science, Porto, Portugal; FEUP - Faculty of Engineering, University of Porto, Porto, Portugal; INESC TEC - Institute for Systems and Computer Engineering, Technology and Science, Porto, Portugal; FEUP - Faculty of Engineering, University of Porto, Porto, Portugal; INESC TEC - Institute for Systems and Computer Engineering, Technology and Science, Porto, Portugal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Interpretability-guided Data Augmentation for Robust Segmentation in
-  Multi-centre Colonoscopy Data</t>
+          <t>https://openalex.org/W4385488890</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>Deep Learning Strategies For Rare Drug Mechanism of Action Prediction</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>2023-06-18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2308.15881</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1109/ijcnn54540.2023.10191437</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2308.15881</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ijcnn54540.2023.10191437</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
